--- a/biology/Médecine/1739_en_santé_et_médecine/1739_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1739_en_santé_et_médecine/1739_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1739_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1739_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1739 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1739_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1739_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Angleterre
-17 octobre : charte de fondation de l'Hôpital des Enfants-Trouvés de Londres (Foundling Hospital)[1].
+17 octobre : charte de fondation de l'Hôpital des Enfants-Trouvés de Londres (Foundling Hospital).
 France
-28 mars : Louis XV déclare qu’il ne fera pas ses pâques. Le roi, époux infidèle et chrétien scrupuleux, se voit interdire de communion par son confesseur, le père de Linières  : il ne touche ni ne touchera plus les écrouelles, ce qui affecte durablement le symbole monarchique[2].
+28 mars : Louis XV déclare qu’il ne fera pas ses pâques. Le roi, époux infidèle et chrétien scrupuleux, se voit interdire de communion par son confesseur, le père de Linières  : il ne touche ni ne touchera plus les écrouelles, ce qui affecte durablement le symbole monarchique.
 Suède
-2 juin : l'Académie royale des sciences de Suède est fondée à Stockholm notamment par Linné et Mårten Triewald (en)[3].</t>
+2 juin : l'Académie royale des sciences de Suède est fondée à Stockholm notamment par Linné et Mårten Triewald (en).</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1739_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1739_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1739_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1739_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,7 +588,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>18 janvier : Johann Christian Daniel von Schreber (mort en 1810), médecin et naturaliste allemand. Il a décrit de nombreux mammifères et rassemblé un très important herbier.
 11 avril : Domenico Maria Leone Cirillo (mort en 1799), naturaliste et médecin italien.
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1739_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1739_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,6 +630,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
